--- a/runs/run231/NotionalETEOutput231.xlsx
+++ b/runs/run231/NotionalETEOutput231.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER2_State_Update</t>
+    <t>Missile_HELLMASKER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2_377.MISSILE_HELLMASKER2_377</t>
+    <t>MISSILE_HELLMASKER0_79.MISSILE_HELLMASKER0_79</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER2</t>
+    <t>MISSILE_HELLMASKER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1436.677849352061</v>
+        <v>-1435.977523674301</v>
       </c>
       <c r="J2">
-        <v>2020.902157265696</v>
+        <v>2005.501234620702</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1528.174087683722</v>
+        <v>-1531.061435569955</v>
       </c>
       <c r="J3">
-        <v>1856.067543287498</v>
+        <v>1930.537080440836</v>
       </c>
       <c r="K3">
-        <v>316.3317551102465</v>
+        <v>290.4326667818257</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1506.599940271642</v>
+        <v>-1428.846655264394</v>
       </c>
       <c r="J4">
-        <v>1922.126818115805</v>
+        <v>1920.501823449232</v>
       </c>
       <c r="K4">
-        <v>565.163489511689</v>
+        <v>603.1831195511563</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1370.224449258094</v>
+        <v>-1371.828905374385</v>
       </c>
       <c r="J5">
-        <v>1932.427666774078</v>
+        <v>1786.14798864499</v>
       </c>
       <c r="K5">
-        <v>827.3809222150643</v>
+        <v>866.6377839370288</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1422.184924066792</v>
+        <v>-1310.010129776652</v>
       </c>
       <c r="J6">
-        <v>1768.690085209232</v>
+        <v>1849.537036623171</v>
       </c>
       <c r="K6">
-        <v>1108.020846530838</v>
+        <v>1139.68961905833</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1280.303016975271</v>
+        <v>-1332.315599436735</v>
       </c>
       <c r="J7">
-        <v>1840.218312941834</v>
+        <v>1790.79975569431</v>
       </c>
       <c r="K7">
-        <v>1314.132860628843</v>
+        <v>1362.188766053411</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1338.92959949657</v>
+        <v>-1359.510690891819</v>
       </c>
       <c r="J8">
-        <v>1742.308572570071</v>
+        <v>1791.719525175372</v>
       </c>
       <c r="K8">
-        <v>1634.761213670732</v>
+        <v>1591.728569267877</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.47784124624539</v>
+        <v>-99.08896562254419</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1241.907596372768</v>
+        <v>-1258.509782259377</v>
       </c>
       <c r="J9">
-        <v>1736.445623549766</v>
+        <v>1671.655020943548</v>
       </c>
       <c r="K9">
-        <v>1740.049458521911</v>
+        <v>1820.502785132974</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>225.03111067084</v>
+        <v>210.2576039887062</v>
       </c>
       <c r="G10">
-        <v>-87.08902637518553</v>
+        <v>-84.81888654313934</v>
       </c>
       <c r="H10">
-        <v>823.3982661217557</v>
+        <v>835.9751952694137</v>
       </c>
       <c r="I10">
-        <v>-1295.306414550895</v>
+        <v>-1220.672961090096</v>
       </c>
       <c r="J10">
-        <v>1608.986556127066</v>
+        <v>1662.317355746474</v>
       </c>
       <c r="K10">
-        <v>1931.251556834585</v>
+        <v>1929.337908521005</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>167.9932782842953</v>
+        <v>174.7982179229119</v>
       </c>
       <c r="G11">
-        <v>-68.94798426237719</v>
+        <v>-68.3641410851862</v>
       </c>
       <c r="H11">
-        <v>1030.06709112636</v>
+        <v>1009.937122832445</v>
       </c>
       <c r="I11">
-        <v>-1207.228245079702</v>
+        <v>-1150.825324206952</v>
       </c>
       <c r="J11">
-        <v>1534.567365871643</v>
+        <v>1487.56390262992</v>
       </c>
       <c r="K11">
-        <v>2110.55547993684</v>
+        <v>2177.898683896423</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.5883654488132</v>
+        <v>141.2367058677773</v>
       </c>
       <c r="G12">
-        <v>-50.1250158401644</v>
+        <v>-48.84480571434529</v>
       </c>
       <c r="H12">
-        <v>1121.607419398377</v>
+        <v>1210.363837453793</v>
       </c>
       <c r="I12">
-        <v>-1191.073834083646</v>
+        <v>-1219.31576955053</v>
       </c>
       <c r="J12">
-        <v>1549.951207400315</v>
+        <v>1571.437908596309</v>
       </c>
       <c r="K12">
-        <v>2439.995172583288</v>
+        <v>2336.189769580473</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>128.1924830776462</v>
+        <v>127.9910579399946</v>
       </c>
       <c r="G13">
-        <v>-33.3250810265851</v>
+        <v>-33.5045228032825</v>
       </c>
       <c r="H13">
-        <v>1296.507336339908</v>
+        <v>1243.953969821774</v>
       </c>
       <c r="I13">
-        <v>-1122.875832784969</v>
+        <v>-1139.340471157322</v>
       </c>
       <c r="J13">
-        <v>1470.519393412444</v>
+        <v>1435.604570512847</v>
       </c>
       <c r="K13">
-        <v>2509.748759094222</v>
+        <v>2591.828362693096</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.854909651627</v>
+        <v>111.6619842412294</v>
       </c>
       <c r="G14">
-        <v>-17.31224327666997</v>
+        <v>-17.99145954036831</v>
       </c>
       <c r="H14">
-        <v>1347.287060219376</v>
+        <v>1264.321922154264</v>
       </c>
       <c r="I14">
-        <v>-1057.445756009197</v>
+        <v>-1086.562495228769</v>
       </c>
       <c r="J14">
-        <v>1381.937006239208</v>
+        <v>1474.53137537499</v>
       </c>
       <c r="K14">
-        <v>2672.080729999343</v>
+        <v>2752.494670557275</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.98567636622678</v>
+        <v>100.0722330922685</v>
       </c>
       <c r="G15">
-        <v>-0.8978280709882354</v>
+        <v>-0.8796311223016527</v>
       </c>
       <c r="H15">
-        <v>1434.947958486947</v>
+        <v>1350.106668324357</v>
       </c>
       <c r="I15">
-        <v>-1076.13350087183</v>
+        <v>-1056.412340368199</v>
       </c>
       <c r="J15">
-        <v>1309.425173069609</v>
+        <v>1351.16654975513</v>
       </c>
       <c r="K15">
-        <v>2792.032356575499</v>
+        <v>2789.899386190996</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.45354906293765</v>
+        <v>94.30403779826723</v>
       </c>
       <c r="G16">
-        <v>15.29556564151981</v>
+        <v>15.28597623675727</v>
       </c>
       <c r="H16">
-        <v>1428.645228629609</v>
+        <v>1459.234647998126</v>
       </c>
       <c r="I16">
-        <v>-1003.113633042837</v>
+        <v>-992.4253269654664</v>
       </c>
       <c r="J16">
-        <v>1343.122663022725</v>
+        <v>1317.69624089484</v>
       </c>
       <c r="K16">
-        <v>2828.771781262565</v>
+        <v>2812.737743003374</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.02660281206209</v>
+        <v>90.3372378659631</v>
       </c>
       <c r="G17">
-        <v>31.59915862059662</v>
+        <v>32.95377255271574</v>
       </c>
       <c r="H17">
-        <v>1532.217009303745</v>
+        <v>1481.271959635103</v>
       </c>
       <c r="I17">
-        <v>-990.8388919290525</v>
+        <v>-923.732578788741</v>
       </c>
       <c r="J17">
-        <v>1244.029625005763</v>
+        <v>1256.3477439936</v>
       </c>
       <c r="K17">
-        <v>2923.191825255265</v>
+        <v>3013.144622070743</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.11718011748087</v>
+        <v>84.83726982755711</v>
       </c>
       <c r="G18">
-        <v>47.55864315281959</v>
+        <v>49.8273691751245</v>
       </c>
       <c r="H18">
-        <v>1427.81881171624</v>
+        <v>1507.093302785579</v>
       </c>
       <c r="I18">
-        <v>-929.1747008511207</v>
+        <v>-912.8715533670112</v>
       </c>
       <c r="J18">
-        <v>1200.418432878151</v>
+        <v>1168.024602431353</v>
       </c>
       <c r="K18">
-        <v>3117.624271876001</v>
+        <v>3023.489073874974</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.23054761075188</v>
+        <v>76.09281729861119</v>
       </c>
       <c r="G19">
-        <v>63.7840888279184</v>
+        <v>62.93266825164777</v>
       </c>
       <c r="H19">
-        <v>1461.366149895743</v>
+        <v>1480.642997621201</v>
       </c>
       <c r="I19">
-        <v>-858.7104453756713</v>
+        <v>-882.5722409722744</v>
       </c>
       <c r="J19">
-        <v>1207.713386243639</v>
+        <v>1226.055795367373</v>
       </c>
       <c r="K19">
-        <v>3245.452227472761</v>
+        <v>2987.878057419388</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.63152098371427</v>
+        <v>74.76431708662719</v>
       </c>
       <c r="G20">
-        <v>78.97128731199123</v>
+        <v>82.19923920773584</v>
       </c>
       <c r="H20">
-        <v>1639.033737799481</v>
+        <v>1544.191642462385</v>
       </c>
       <c r="I20">
-        <v>-874.1285935601995</v>
+        <v>-859.8787249656756</v>
       </c>
       <c r="J20">
-        <v>1071.977201719147</v>
+        <v>1157.757165364587</v>
       </c>
       <c r="K20">
-        <v>3157.384922188569</v>
+        <v>3164.349443982829</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.3848845628192</v>
+        <v>69.36123100682153</v>
       </c>
       <c r="G21">
-        <v>93.98702408786902</v>
+        <v>97.486002020851</v>
       </c>
       <c r="H21">
-        <v>1533.705608301749</v>
+        <v>1538.758071183056</v>
       </c>
       <c r="I21">
-        <v>-802.4939526353693</v>
+        <v>-764.4254985404182</v>
       </c>
       <c r="J21">
-        <v>1087.45026754684</v>
+        <v>1033.590555315031</v>
       </c>
       <c r="K21">
-        <v>3225.025636601089</v>
+        <v>3296.531921773832</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.34529317777539</v>
+        <v>65.15531131965794</v>
       </c>
       <c r="G22">
-        <v>112.6326663050217</v>
+        <v>110.8041280798828</v>
       </c>
       <c r="H22">
-        <v>1622.449184268482</v>
+        <v>1648.164319225576</v>
       </c>
       <c r="I22">
-        <v>-732.576413468535</v>
+        <v>-723.8014114151219</v>
       </c>
       <c r="J22">
-        <v>1073.019697077583</v>
+        <v>1055.054317503843</v>
       </c>
       <c r="K22">
-        <v>3115.457973257112</v>
+        <v>3277.836758188563</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.42935807285363</v>
+        <v>65.76535649245425</v>
       </c>
       <c r="G23">
-        <v>126.1332587578321</v>
+        <v>133.4658683518454</v>
       </c>
       <c r="H23">
-        <v>1639.717938670033</v>
+        <v>1565.388643029201</v>
       </c>
       <c r="I23">
-        <v>-673.3096572315884</v>
+        <v>-675.6026635137633</v>
       </c>
       <c r="J23">
-        <v>1010.533636099419</v>
+        <v>1000.988084376443</v>
       </c>
       <c r="K23">
-        <v>3297.808562293013</v>
+        <v>3245.57292204821</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.27830411623727</v>
+        <v>65.16466955339543</v>
       </c>
       <c r="G24">
-        <v>151.7637278488894</v>
+        <v>140.8702731348585</v>
       </c>
       <c r="H24">
-        <v>1575.620885127657</v>
+        <v>1673.486490698391</v>
       </c>
       <c r="I24">
-        <v>-633.2891969000516</v>
+        <v>-648.8646241223944</v>
       </c>
       <c r="J24">
-        <v>885.3758689064467</v>
+        <v>900.1452164647769</v>
       </c>
       <c r="K24">
-        <v>3110.760558418402</v>
+        <v>3267.850339209167</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.33626059461169</v>
+        <v>59.6419175090971</v>
       </c>
       <c r="G25">
-        <v>160.6628716226112</v>
+        <v>161.069520631017</v>
       </c>
       <c r="H25">
-        <v>1638.616660522812</v>
+        <v>1616.173676577131</v>
       </c>
       <c r="I25">
-        <v>-568.8845077422023</v>
+        <v>-622.5468874290807</v>
       </c>
       <c r="J25">
-        <v>842.1722823789814</v>
+        <v>895.5258615471216</v>
       </c>
       <c r="K25">
-        <v>2998.299961330492</v>
+        <v>3188.911628270454</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.3405394238118</v>
+        <v>60.20569516011923</v>
       </c>
       <c r="G26">
-        <v>173.3339393253482</v>
+        <v>187.9550370566213</v>
       </c>
       <c r="H26">
-        <v>1699.4417808321</v>
+        <v>1607.875767883599</v>
       </c>
       <c r="I26">
-        <v>-552.48814898355</v>
+        <v>-570.7462767055339</v>
       </c>
       <c r="J26">
-        <v>793.4373005088669</v>
+        <v>818.547896992462</v>
       </c>
       <c r="K26">
-        <v>3176.907381320289</v>
+        <v>3099.054841537737</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.42297094583414</v>
+        <v>56.68699164665816</v>
       </c>
       <c r="G27">
-        <v>204.6290075212047</v>
+        <v>191.2633963241728</v>
       </c>
       <c r="H27">
-        <v>1663.166334690232</v>
+        <v>1629.801309347668</v>
       </c>
       <c r="I27">
-        <v>-476.7140140142092</v>
+        <v>-499.7106905601275</v>
       </c>
       <c r="J27">
-        <v>749.7650744722844</v>
+        <v>821.3530654610095</v>
       </c>
       <c r="K27">
-        <v>3198.492518747154</v>
+        <v>3141.128288037013</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.28889552743954</v>
+        <v>54.02956254355568</v>
       </c>
       <c r="G28">
-        <v>207.2241005116101</v>
+        <v>219.4595057565768</v>
       </c>
       <c r="H28">
-        <v>1721.624110934102</v>
+        <v>1690.848748511434</v>
       </c>
       <c r="I28">
-        <v>-427.4566620416942</v>
+        <v>-424.546162472134</v>
       </c>
       <c r="J28">
-        <v>752.9246347901733</v>
+        <v>770.841152256896</v>
       </c>
       <c r="K28">
-        <v>3089.082542428673</v>
+        <v>2866.076651908976</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.7787141101791</v>
+        <v>55.81920427032165</v>
       </c>
       <c r="G29">
-        <v>226.9058460490456</v>
+        <v>219.8086743019562</v>
       </c>
       <c r="H29">
-        <v>1699.658130375225</v>
+        <v>1786.240693538704</v>
       </c>
       <c r="I29">
-        <v>-380.5317362670938</v>
+        <v>-368.947480832772</v>
       </c>
       <c r="J29">
-        <v>711.696463271541</v>
+        <v>703.7322581303707</v>
       </c>
       <c r="K29">
-        <v>2902.910786126159</v>
+        <v>2766.279144327153</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.43291897892377</v>
+        <v>56.2678515060469</v>
       </c>
       <c r="G30">
-        <v>244.7406555663576</v>
+        <v>245.5156311511079</v>
       </c>
       <c r="H30">
-        <v>1795.399212403048</v>
+        <v>1702.370491665463</v>
       </c>
       <c r="I30">
-        <v>-334.5093534140325</v>
+        <v>-322.0482004617238</v>
       </c>
       <c r="J30">
-        <v>606.4479660916687</v>
+        <v>642.6910557601307</v>
       </c>
       <c r="K30">
-        <v>2706.217737287665</v>
+        <v>2785.837333544225</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.05099964897981</v>
+        <v>53.20301325314545</v>
       </c>
       <c r="G31">
-        <v>257.1366229636403</v>
+        <v>266.9048872878449</v>
       </c>
       <c r="H31">
-        <v>1709.52701928616</v>
+        <v>1776.57426332087</v>
       </c>
       <c r="I31">
-        <v>-270.2466237220634</v>
+        <v>-263.0124278393279</v>
       </c>
       <c r="J31">
-        <v>596.1884291397478</v>
+        <v>610.6825017959507</v>
       </c>
       <c r="K31">
-        <v>2590.733670700245</v>
+        <v>2740.620744761472</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.2770541759625</v>
+        <v>53.66493169830568</v>
       </c>
       <c r="G32">
-        <v>288.1560045455099</v>
+        <v>283.7233656729368</v>
       </c>
       <c r="H32">
-        <v>1731.321525185608</v>
+        <v>1836.648247647722</v>
       </c>
       <c r="I32">
-        <v>-216.7349222484179</v>
+        <v>-211.4824171124961</v>
       </c>
       <c r="J32">
-        <v>519.2596894647694</v>
+        <v>542.6555381513969</v>
       </c>
       <c r="K32">
-        <v>2619.137868849941</v>
+        <v>2628.313059136036</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.43339642123</v>
+        <v>51.5113878679945</v>
       </c>
       <c r="G33">
-        <v>305.7863372594618</v>
+        <v>286.393771678599</v>
       </c>
       <c r="H33">
-        <v>1715.357073633796</v>
+        <v>1795.651756357591</v>
       </c>
       <c r="I33">
-        <v>-153.4206993579314</v>
+        <v>-150.627833690864</v>
       </c>
       <c r="J33">
-        <v>513.7695967182624</v>
+        <v>487.9649515274751</v>
       </c>
       <c r="K33">
-        <v>2428.022828469575</v>
+        <v>2363.355918192696</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.49313961121538</v>
+        <v>50.83566572719236</v>
       </c>
       <c r="G34">
-        <v>309.8352791307958</v>
+        <v>300.4629252399177</v>
       </c>
       <c r="H34">
-        <v>1880.289441252585</v>
+        <v>1766.355382693053</v>
       </c>
       <c r="I34">
-        <v>-82.02949508168129</v>
+        <v>-85.43367419776139</v>
       </c>
       <c r="J34">
-        <v>458.6211863266263</v>
+        <v>444.9572373570921</v>
       </c>
       <c r="K34">
-        <v>2267.831421478718</v>
+        <v>2105.736299083254</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.3400288259794</v>
+        <v>48.07123408523586</v>
       </c>
       <c r="G35">
-        <v>329.5967920193457</v>
+        <v>341.1896425267662</v>
       </c>
       <c r="H35">
-        <v>1905.792638219308</v>
+        <v>1734.780352534448</v>
       </c>
       <c r="I35">
-        <v>-19.48413264797767</v>
+        <v>-19.05418247641996</v>
       </c>
       <c r="J35">
-        <v>404.5537709241034</v>
+        <v>393.8310597641728</v>
       </c>
       <c r="K35">
-        <v>2009.235935887936</v>
+        <v>1988.3938799079</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.89696194793206</v>
+        <v>49.56732716588327</v>
       </c>
       <c r="G36">
-        <v>328.7393156410748</v>
+        <v>352.5290928486805</v>
       </c>
       <c r="H36">
-        <v>1786.490740142523</v>
+        <v>1871.203422326695</v>
       </c>
       <c r="I36">
-        <v>49.38308713105852</v>
+        <v>47.73268238730037</v>
       </c>
       <c r="J36">
-        <v>331.2917238390234</v>
+        <v>328.9466954655754</v>
       </c>
       <c r="K36">
-        <v>1804.613825771358</v>
+        <v>1813.331964050275</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.31980932993085</v>
+        <v>46.14020813712214</v>
       </c>
       <c r="G37">
-        <v>347.4493467659309</v>
+        <v>378.3391022077359</v>
       </c>
       <c r="H37">
-        <v>1923.193859105473</v>
+        <v>1903.366419259577</v>
       </c>
       <c r="I37">
-        <v>116.7846322974832</v>
+        <v>113.9813068779609</v>
       </c>
       <c r="J37">
-        <v>289.9260941598185</v>
+        <v>285.0847457800742</v>
       </c>
       <c r="K37">
-        <v>1592.525941474512</v>
+        <v>1618.900322928872</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.42723598510837</v>
+        <v>46.0854411443027</v>
       </c>
       <c r="G38">
-        <v>385.8056232603776</v>
+        <v>388.6738443276902</v>
       </c>
       <c r="H38">
-        <v>1876.562856481857</v>
+        <v>1936.086319993375</v>
       </c>
       <c r="I38">
-        <v>183.9628840215703</v>
+        <v>180.1249798004352</v>
       </c>
       <c r="J38">
-        <v>238.3261983830013</v>
+        <v>250.1976034622039</v>
       </c>
       <c r="K38">
-        <v>1419.98773383301</v>
+        <v>1325.739828574646</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.46696945569452</v>
+        <v>46.85001921820864</v>
       </c>
       <c r="G39">
-        <v>405.9680525577513</v>
+        <v>408.8567594565211</v>
       </c>
       <c r="H39">
-        <v>1892.662912618689</v>
+        <v>1927.397181632368</v>
       </c>
       <c r="I39">
-        <v>260.0953103653006</v>
+        <v>245.6794723040371</v>
       </c>
       <c r="J39">
-        <v>206.9991857780477</v>
+        <v>199.1091759330406</v>
       </c>
       <c r="K39">
-        <v>1132.179458060775</v>
+        <v>1151.763665297146</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.09414419006569</v>
+        <v>43.68926212104273</v>
       </c>
       <c r="G40">
-        <v>413.3741744463101</v>
+        <v>403.6412598226107</v>
       </c>
       <c r="H40">
-        <v>1900.437009622937</v>
+        <v>1935.987480036789</v>
       </c>
       <c r="I40">
-        <v>316.689897940526</v>
+        <v>340.348459303551</v>
       </c>
       <c r="J40">
-        <v>146.1911488450535</v>
+        <v>143.8571872507828</v>
       </c>
       <c r="K40">
-        <v>939.1860806074413</v>
+        <v>882.6295302426606</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.10038705942068</v>
+        <v>43.95595879740068</v>
       </c>
       <c r="G41">
-        <v>445.2048698142515</v>
+        <v>426.0805258338756</v>
       </c>
       <c r="H41">
-        <v>1872.662202912714</v>
+        <v>1947.948399126336</v>
       </c>
       <c r="I41">
-        <v>398.728799783923</v>
+        <v>388.0401538865216</v>
       </c>
       <c r="J41">
-        <v>103.3225565379597</v>
+        <v>99.09108461696383</v>
       </c>
       <c r="K41">
-        <v>596.9657255924501</v>
+        <v>650.3395557915063</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.1235075092203</v>
+        <v>43.46307219372254</v>
       </c>
       <c r="G42">
-        <v>432.6093211057037</v>
+        <v>457.0176374048219</v>
       </c>
       <c r="H42">
-        <v>1874.050850081454</v>
+        <v>1860.217899473228</v>
       </c>
       <c r="I42">
-        <v>476.0751795898927</v>
+        <v>497.8390172780027</v>
       </c>
       <c r="J42">
-        <v>55.18709197272278</v>
+        <v>52.51119986767107</v>
       </c>
       <c r="K42">
-        <v>327.1603903918158</v>
+        <v>342.7412558018797</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.88034976871879</v>
+        <v>43.63596967374199</v>
       </c>
       <c r="G43">
-        <v>475.518524397149</v>
+        <v>444.2606714793527</v>
       </c>
       <c r="H43">
-        <v>1894.592077575655</v>
+        <v>1934.633779309054</v>
       </c>
       <c r="I43">
-        <v>562.9399058935574</v>
+        <v>567.4890405263801</v>
       </c>
       <c r="J43">
-        <v>5.293929475492418</v>
+        <v>5.451731020523277</v>
       </c>
       <c r="K43">
-        <v>35.08603728564061</v>
+        <v>32.58220689672726</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.18663658260814</v>
+        <v>41.57277486980666</v>
       </c>
       <c r="G44">
-        <v>465.6972374419895</v>
+        <v>455.9011847525317</v>
       </c>
       <c r="H44">
-        <v>1886.932889005159</v>
+        <v>1901.595379702562</v>
       </c>
       <c r="I44">
-        <v>639.0745995834245</v>
+        <v>627.3460394878118</v>
       </c>
       <c r="J44">
-        <v>-43.30796638468436</v>
+        <v>-43.54954917112226</v>
       </c>
       <c r="K44">
-        <v>-293.2917517161495</v>
+        <v>-283.4689207943218</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.68893093158135</v>
+        <v>42.2645626356731</v>
       </c>
       <c r="G45">
-        <v>498.3930821575499</v>
+        <v>471.4495489596864</v>
       </c>
       <c r="H45">
-        <v>1843.510633578449</v>
+        <v>1914.142149766787</v>
       </c>
       <c r="I45">
-        <v>752.1510587499191</v>
+        <v>740.9902200962184</v>
       </c>
       <c r="J45">
-        <v>-88.37012634548979</v>
+        <v>-90.25338142642552</v>
       </c>
       <c r="K45">
-        <v>-622.2846990260434</v>
+        <v>-638.8444601395794</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.5889453725074</v>
+        <v>42.33558764539946</v>
       </c>
       <c r="G46">
-        <v>499.778413784344</v>
+        <v>500.4164865183111</v>
       </c>
       <c r="H46">
-        <v>1980.945444332942</v>
+        <v>1987.785795422244</v>
       </c>
       <c r="I46">
-        <v>844.4812197622127</v>
+        <v>795.7069216850607</v>
       </c>
       <c r="J46">
-        <v>-145.7188043282262</v>
+        <v>-140.938409310918</v>
       </c>
       <c r="K46">
-        <v>-996.3132836427939</v>
+        <v>-990.0710026278808</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.34111495494063</v>
+        <v>40.64414000513352</v>
       </c>
       <c r="G47">
-        <v>547.9174488563767</v>
+        <v>520.9471642673634</v>
       </c>
       <c r="H47">
-        <v>1955.955584482862</v>
+        <v>2015.10502613618</v>
       </c>
       <c r="I47">
-        <v>861.9836668048937</v>
+        <v>867.9685844872557</v>
       </c>
       <c r="J47">
-        <v>-196.1248238843206</v>
+        <v>-182.1396226289302</v>
       </c>
       <c r="K47">
-        <v>-1323.487389155139</v>
+        <v>-1385.496732080667</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.17702204935595</v>
+        <v>39.66637292150478</v>
       </c>
       <c r="G48">
-        <v>556.7907579533689</v>
+        <v>517.5068837446646</v>
       </c>
       <c r="H48">
-        <v>2011.100079143132</v>
+        <v>2019.395720169265</v>
       </c>
       <c r="I48">
-        <v>936.0265394096444</v>
+        <v>982.165613059665</v>
       </c>
       <c r="J48">
-        <v>-241.1042379129452</v>
+        <v>-248.6750692822269</v>
       </c>
       <c r="K48">
-        <v>-1720.341079596248</v>
+        <v>-1718.259847596758</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.38486576480037</v>
+        <v>39.44996532614547</v>
       </c>
       <c r="G49">
-        <v>546.2341006664976</v>
+        <v>577.5221713907018</v>
       </c>
       <c r="H49">
-        <v>1890.826243310995</v>
+        <v>2041.710009232147</v>
       </c>
       <c r="I49">
-        <v>1039.84606307373</v>
+        <v>1055.809452598456</v>
       </c>
       <c r="J49">
-        <v>-288.3216419741438</v>
+        <v>-296.8966341858401</v>
       </c>
       <c r="K49">
-        <v>-2047.33295329053</v>
+        <v>-2125.618307061884</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.73574978705352</v>
+        <v>36.64602165443208</v>
       </c>
       <c r="G50">
-        <v>599.7791087913439</v>
+        <v>601.5898810266996</v>
       </c>
       <c r="H50">
-        <v>1989.55400864577</v>
+        <v>2025.212440012308</v>
       </c>
       <c r="I50">
-        <v>1143.939135110129</v>
+        <v>1218.413960724725</v>
       </c>
       <c r="J50">
-        <v>-338.8593171380479</v>
+        <v>-331.9602380605114</v>
       </c>
       <c r="K50">
-        <v>-2395.633632992567</v>
+        <v>-2447.083192867908</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.19821463289815</v>
+        <v>37.15709805269815</v>
       </c>
       <c r="G51">
-        <v>572.0864652329308</v>
+        <v>604.4277135995346</v>
       </c>
       <c r="H51">
-        <v>1922.84431036515</v>
+        <v>1966.362213384687</v>
       </c>
       <c r="I51">
-        <v>1303.300258108233</v>
+        <v>1213.744911528096</v>
       </c>
       <c r="J51">
-        <v>-390.5566440079435</v>
+        <v>-387.5116542764833</v>
       </c>
       <c r="K51">
-        <v>-2926.45098025474</v>
+        <v>-3057.904800799457</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.84570850136344</v>
+        <v>38.54990949411202</v>
       </c>
       <c r="G52">
-        <v>595.3826862548353</v>
+        <v>636.1716631048673</v>
       </c>
       <c r="H52">
-        <v>2001.345179602314</v>
+        <v>2060.705896356204</v>
       </c>
       <c r="I52">
-        <v>1319.880984558112</v>
+        <v>1366.324016795382</v>
       </c>
       <c r="J52">
-        <v>-420.3367228545841</v>
+        <v>-432.2789008836804</v>
       </c>
       <c r="K52">
-        <v>-3517.050099455138</v>
+        <v>-3337.043521624231</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.91482894817402</v>
+        <v>35.54210165274559</v>
       </c>
       <c r="G53">
-        <v>651.6317698186268</v>
+        <v>638.548993800743</v>
       </c>
       <c r="H53">
-        <v>2041.877500267507</v>
+        <v>1949.631157013068</v>
       </c>
       <c r="I53">
-        <v>1507.582251642355</v>
+        <v>1494.732871350794</v>
       </c>
       <c r="J53">
-        <v>-498.623972019119</v>
+        <v>-502.0664680201933</v>
       </c>
       <c r="K53">
-        <v>-3885.902248595955</v>
+        <v>-3706.830379814038</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>34.88266182871206</v>
+        <v>37.0671791234161</v>
       </c>
       <c r="G54">
-        <v>630.0066061389986</v>
+        <v>630.6089000447405</v>
       </c>
       <c r="H54">
-        <v>1950.588701614301</v>
+        <v>1993.716245644682</v>
       </c>
       <c r="I54">
-        <v>1585.069590133946</v>
+        <v>1572.496918677632</v>
       </c>
       <c r="J54">
-        <v>-530.6815330568492</v>
+        <v>-537.1479629896002</v>
       </c>
       <c r="K54">
-        <v>-4423.860766030024</v>
+        <v>-4262.885703118674</v>
       </c>
     </row>
   </sheetData>
